--- a/pred_ohlcv/54_21/2020-01-11 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 TRX ohlcv.xlsx
@@ -1510,7 +1510,7 @@
         <v>49439.45413297038</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>49439.45413297038</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-23123.70786702962</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>6876.292132970382</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>6876.292132970382</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-42619.14686702962</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1670.028532970377</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1416.011467029623</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>305987.7621178704</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>302905.6421178704</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>358905.6421178704</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>358905.6421178704</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>358905.6421178704</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>351662.2562178704</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>355282.2562178704</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>353115.1462178704</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>356735.1462178704</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>356735.1462178704</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>355974.9463178704</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>370696.0963178704</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>677607.9642137504</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>3062290.84500917</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>3062290.84500917</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3062290.84500917</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3070953.712822611</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3170714.640122611</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3131275.75292261</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3280014.24942261</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3280014.24942261</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3249593.21272261</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3251410.10692261</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3250935.73062261</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>3315935.73062261</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>3315935.73062261</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>3126801.37722261</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2757966.86368994</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2741109.06700361</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>2769062.51260361</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>2768894.24340361</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>2797912.13850361</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>2797912.13850361</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>2300304.64190361</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>2300304.64190361</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>2300304.64190361</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>2300304.64190361</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>2286536.37870361</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>2171241.71490361</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>2090828.80280361</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>2091061.783513</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>551645.1188129997</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>903767.6383129996</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>903830.7576129996</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>801164.9666129997</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>801164.9666129997</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>801164.9666129997</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>821583.1951129996</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>819914.9041129997</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>491292.9896129997</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>498544.6948129997</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>493012.8960129997</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>493012.8960129997</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>493012.8960129997</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>559836.3376129997</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>559836.3376129997</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-578537.5100870003</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-578537.5100870003</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-542153.8479950903</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-552690.0627950903</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-9258257.462779447</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-9233317.539879447</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-9244155.335179446</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-9234155.335179446</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-9222566.711779445</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-9222566.711779445</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-9423007.441579446</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-9423007.441579446</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-9479342.959679447</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-9449342.959679447</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-7316953.299779447</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-9022994.541793698</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-9013751.770693699</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-8841076.171593698</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-8270195.368093697</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-8209799.989993697</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-8324342.498193697</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-8324342.498193697</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-8321342.498193697</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-7072647.927119486</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-7652986.999419486</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-7275790.818819487</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-7275790.818819487</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-7267651.051019487</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-7302490.975819487</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-7302490.975819487</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-7305925.718019487</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-7302903.339019488</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-7568047.742790498</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-7411276.826190498</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-7393632.025990497</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-7338269.775990497</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-7076361.762190497</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-7076361.762190497</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-7022503.390128387</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-7022503.390128387</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-7022503.390128387</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-6993846.214369807</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-7543642.432569806</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-7543642.432569806</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-7345337.075369806</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-7345337.075369806</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 TRX ohlcv.xlsx
@@ -1510,7 +1510,7 @@
         <v>49439.45413297038</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>49439.45413297038</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-23123.70786702962</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>6876.292132970382</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>6876.292132970382</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-42619.14686702962</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1670.028532970377</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1416.011467029623</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>305987.7621178704</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>302905.6421178704</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>358905.6421178704</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>358905.6421178704</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>358905.6421178704</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>351662.2562178704</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>355282.2562178704</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>353115.1462178704</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>356735.1462178704</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>356735.1462178704</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>355974.9463178704</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>370696.0963178704</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>677607.9642137504</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>3062290.84500917</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>3062290.84500917</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3062290.84500917</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3070953.712822611</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3170714.640122611</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3131275.75292261</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3280014.24942261</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3280014.24942261</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3249593.21272261</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3251410.10692261</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3250935.73062261</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>3315935.73062261</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>3315935.73062261</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2741109.06700361</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>2769062.51260361</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>2768894.24340361</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>2797912.13850361</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>2797912.13850361</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>2300304.64190361</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>2300304.64190361</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>2300304.64190361</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>2300304.64190361</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>2286536.37870361</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>2171241.71490361</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>2090828.80280361</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>2091061.783513</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>551645.1188129997</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>903767.6383129996</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>903830.7576129996</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>801164.9666129997</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>801164.9666129997</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>801164.9666129997</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>821583.1951129996</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>819914.9041129997</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>491292.9896129997</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>498544.6948129997</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>493012.8960129997</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>493012.8960129997</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>493012.8960129997</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>559836.3376129997</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>559836.3376129997</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-578537.5100870003</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-578537.5100870003</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-578537.5100870003</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-541980.9855950903</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-542157.0687950903</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-542063.8479950903</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-542153.8479950903</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-552690.0627950903</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-552690.0627950903</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-552690.0627950903</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-9258257.462779447</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-9258257.462779447</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-9233445.498979447</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-9233317.539879447</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-9234155.335179446</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-9222566.711779445</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-9423007.441579446</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-9479342.959679447</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-9449342.959679447</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-9022994.541793698</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-9013751.770693699</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-8633743.581093699</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-8636213.123093698</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-8601012.861093698</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-8601076.171593698</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-8801076.171593698</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-8270195.368093697</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-8170195.368093697</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-8184622.137493697</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-8182622.137493697</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-8209799.989993697</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-8324342.498193697</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-8321342.498193697</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-8321242.498193697</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-7072647.927119486</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-7652986.999419486</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-7275790.818819487</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-7275790.818819487</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-7267651.051019487</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-7302490.975819487</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-7302490.975819487</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-7305925.718019487</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-7302903.339019488</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-7568047.742790498</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-7411276.826190498</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-7393632.025990497</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-7338269.775990497</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-7076361.762190497</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-7076361.762190497</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-7022503.390128387</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-7022503.390128387</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-7022503.390128387</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-6993846.214369807</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-7543642.432569806</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-7543642.432569806</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-7345337.075369806</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-7345337.075369806</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-5245850.612138953</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-5334516.742638953</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-5305969.058638953</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-5405869.058638953</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-5405869.058638953</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-5311477.091056933</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-5311477.091056933</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-5747790.662056932</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-5747790.662056932</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-5747790.662056932</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-5594877.802756933</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-5594877.802756933</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-5532458.067156932</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-5562283.580956932</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-5774871.814956932</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-5751997.771856932</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-5756376.690056932</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-5756376.690056932</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-5756376.690056932</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-5868296.140056932</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-5868296.140056932</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-5868296.140056932</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-5868296.140056932</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-5868296.140056932</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-5873940.250256932</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-5873940.250256932</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-5873940.250256932</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-5960243.822856932</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-5965283.198956932</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-6006287.085756932</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-6441611.126756933</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-6427913.126756933</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-6427913.126756933</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-7242866.071256933</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-7657439.215656932</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-7650982.965056933</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-7650982.965056933</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-7661838.526756933</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-7630737.598056934</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-7661001.917356933</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-6732929.787556932</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-6077410.031056932</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-6023423.495438952</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-6573423.495438952</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-6635449.697910922</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-6410102.908957082</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-6711504.672557082</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-6711504.672557082</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-6714362.809757082</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-6494319.305857082</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-6152183.007357082</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-6415183.007357082</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-6415183.007357082</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-6660414.554457082</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-6660414.554457082</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
